--- a/dbTest.xlsx
+++ b/dbTest.xlsx
@@ -112,10 +112,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="26"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -280,11 +280,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507342848"/>
-        <c:axId val="61903936"/>
+        <c:axId val="510237184"/>
+        <c:axId val="42637504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="507342848"/>
+        <c:axId val="510237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -293,7 +293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61903936"/>
+        <c:crossAx val="42637504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -301,7 +301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61903936"/>
+        <c:axId val="42637504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507342848"/>
+        <c:crossAx val="510237184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -360,10 +360,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
+      <c14:style val="115"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="26"/>
+      <c:style val="15"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -519,11 +519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521080832"/>
-        <c:axId val="514869504"/>
+        <c:axId val="510238208"/>
+        <c:axId val="514204224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="521080832"/>
+        <c:axId val="510238208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514869504"/>
+        <c:crossAx val="514204224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -540,7 +540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514869504"/>
+        <c:axId val="514204224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521080832"/>
+        <c:crossAx val="510238208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -596,16 +596,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -626,16 +626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -914,7 +914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -925,7 +925,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
